--- a/first_process/data_processed.xlsx
+++ b/first_process/data_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AD144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,52 +531,57 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Nio</t>
+          <t>Be</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Be</t>
+          <t>Hf</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Hf</t>
+          <t>Ta</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Ta</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>V</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E_pred</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>yield_pred</t>
         </is>
       </c>
     </row>
@@ -670,7 +675,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>100.97</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2019.4</v>
       </c>
     </row>
     <row r="3">
@@ -751,7 +759,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>91.35999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1827.2</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +855,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>96.23</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1924.6</v>
       </c>
     </row>
     <row r="5">
@@ -933,7 +947,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>90.46199999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1809.24</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1039,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>91.07080000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1821.416</v>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1131,10 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>91.68600000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1833.72</v>
       </c>
     </row>
     <row r="8">
@@ -1200,7 +1223,10 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>92.91</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1858.2</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1317,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>93.82929999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1876.586</v>
       </c>
     </row>
     <row r="10">
@@ -1382,7 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>93.97629999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1879.526</v>
       </c>
     </row>
     <row r="11">
@@ -1473,7 +1505,10 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>94.09419999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1881.884</v>
       </c>
     </row>
     <row r="12">
@@ -1564,7 +1599,10 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>94.16359999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1883.272</v>
       </c>
     </row>
     <row r="13">
@@ -1655,7 +1693,10 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>94.2176</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1884.352</v>
       </c>
     </row>
     <row r="14">
@@ -1746,7 +1787,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>94.24100000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1884.82</v>
       </c>
     </row>
     <row r="15">
@@ -1831,7 +1875,10 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1860</v>
       </c>
     </row>
     <row r="16">
@@ -1916,7 +1963,10 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>101.3</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2026</v>
       </c>
     </row>
     <row r="17">
@@ -2003,7 +2053,10 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>107.8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2156</v>
       </c>
     </row>
     <row r="18">
@@ -2088,7 +2141,10 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>93.27499999999999</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1865.5</v>
       </c>
     </row>
     <row r="19">
@@ -2173,7 +2229,10 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>90.84999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1817</v>
       </c>
     </row>
     <row r="20">
@@ -2258,7 +2317,10 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>91.67999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1833.6</v>
       </c>
     </row>
     <row r="21">
@@ -2339,7 +2401,10 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>89.61799999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1792.36</v>
       </c>
     </row>
     <row r="22">
@@ -2424,13 +2489,16 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>102.265</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2045.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Zr56Al16(Nio.7Ag0.3)28</t>
+          <t>Zr56Al16(Ni0.7Ag0.3)28</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2448,7 +2516,7 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Zr56.0Nio19.6Al16.0Ag8.4</t>
+          <t>Zr56.0Ni19.6Al16.0Ag8.4</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -2464,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2482,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2509,7 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>95.45200000000001</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1909.04</v>
       </c>
     </row>
     <row r="24">
@@ -2594,7 +2665,10 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>91.72</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1834.4</v>
       </c>
     </row>
     <row r="25">
@@ -2679,7 +2753,10 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>87.75</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1755</v>
       </c>
     </row>
     <row r="26">
@@ -2758,7 +2835,10 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>100.97</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2019.4</v>
       </c>
     </row>
     <row r="27">
@@ -2816,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="U27" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2843,7 +2923,10 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>144.825</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2896.5</v>
       </c>
     </row>
     <row r="28">
@@ -2928,7 +3011,10 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>94.11460000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1882.292</v>
       </c>
     </row>
     <row r="29">
@@ -3019,7 +3105,10 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>96.3591</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1927.182</v>
       </c>
     </row>
     <row r="30">
@@ -3108,7 +3197,10 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>96.44550899999999</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1928.91018</v>
       </c>
     </row>
     <row r="31">
@@ -3197,7 +3289,10 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>96.53191799999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1930.63836</v>
       </c>
     </row>
     <row r="32">
@@ -3286,7 +3381,10 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>96.61832700000001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1932.36654</v>
       </c>
     </row>
     <row r="33">
@@ -3375,7 +3473,10 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>96.70473600000001</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1934.09472</v>
       </c>
     </row>
     <row r="34">
@@ -3456,7 +3557,10 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>91.8725</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1837.45</v>
       </c>
     </row>
     <row r="35">
@@ -3537,7 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>94.2415</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1884.83</v>
       </c>
     </row>
     <row r="36">
@@ -3618,7 +3725,10 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>95.88740000000001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1917.748</v>
       </c>
     </row>
     <row r="37">
@@ -3699,7 +3809,10 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>89.9637</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1799.274</v>
       </c>
     </row>
     <row r="38">
@@ -3780,7 +3893,10 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>92.3181</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1846.362</v>
       </c>
     </row>
     <row r="39">
@@ -3861,7 +3977,10 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>93.95060000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1879.012</v>
       </c>
     </row>
     <row r="40">
@@ -3942,7 +4061,10 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>97.94989999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1958.998</v>
       </c>
     </row>
     <row r="41">
@@ -4023,7 +4145,10 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>92.0402</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1840.804</v>
       </c>
     </row>
     <row r="42">
@@ -4104,7 +4229,10 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>94.28459999999998</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1885.692</v>
       </c>
     </row>
     <row r="43">
@@ -4185,7 +4313,10 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>95.9263</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1918.526</v>
       </c>
     </row>
     <row r="44">
@@ -4276,7 +4407,10 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>90.84999999999999</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1817</v>
       </c>
     </row>
     <row r="45">
@@ -4367,7 +4501,10 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>89.56999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1791.4</v>
       </c>
     </row>
     <row r="46">
@@ -4458,7 +4595,10 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>88.28999999999999</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1765.8</v>
       </c>
     </row>
     <row r="47">
@@ -4549,7 +4689,10 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>87.00999999999999</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1740.2</v>
       </c>
     </row>
     <row r="48">
@@ -4640,7 +4783,10 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>85.73</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1714.6</v>
       </c>
     </row>
     <row r="49">
@@ -4731,7 +4877,10 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>84.45</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1689</v>
       </c>
     </row>
     <row r="50">
@@ -4824,7 +4973,10 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>89.48</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1789.6</v>
       </c>
     </row>
     <row r="51">
@@ -4893,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -4917,7 +5069,10 @@
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>88.96000000000001</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1779.2</v>
       </c>
     </row>
     <row r="52">
@@ -4986,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5010,7 +5165,10 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>88.44</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1768.8</v>
       </c>
     </row>
     <row r="53">
@@ -5079,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5103,7 +5261,10 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>87.92</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1758.4</v>
       </c>
     </row>
     <row r="54">
@@ -5172,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -5196,7 +5357,10 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>87.40000000000001</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1748</v>
       </c>
     </row>
     <row r="55">
@@ -5265,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5289,7 +5453,10 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>86.88000000000001</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1737.6</v>
       </c>
     </row>
     <row r="56">
@@ -5380,7 +5547,10 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>94.22</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1884.4</v>
       </c>
     </row>
     <row r="57">
@@ -5471,7 +5641,10 @@
         <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>94.33</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1886.6</v>
       </c>
     </row>
     <row r="58">
@@ -5562,7 +5735,10 @@
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>94.55</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1891</v>
       </c>
     </row>
     <row r="59">
@@ -5649,7 +5825,10 @@
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>94.77</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1895.4</v>
       </c>
     </row>
     <row r="60">
@@ -5736,7 +5915,10 @@
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>94.98999999999999</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1899.8</v>
       </c>
     </row>
     <row r="61">
@@ -5829,7 +6011,10 @@
         <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>93.56</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1871.2</v>
       </c>
     </row>
     <row r="62">
@@ -5922,7 +6107,10 @@
         <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>93.23</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1864.6</v>
       </c>
     </row>
     <row r="63">
@@ -6015,7 +6203,10 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>92.89999999999999</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1858</v>
       </c>
     </row>
     <row r="64">
@@ -6108,7 +6299,10 @@
         <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>92.56999999999999</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1851.4</v>
       </c>
     </row>
     <row r="65">
@@ -6201,7 +6395,10 @@
         <v>0</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>92.23999999999998</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1844.799999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6294,7 +6491,10 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>91.91</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1838.2</v>
       </c>
     </row>
     <row r="67">
@@ -6383,7 +6583,10 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>93.55</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>1871</v>
       </c>
     </row>
     <row r="68">
@@ -6472,7 +6675,10 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>93.05000000000001</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>1861</v>
       </c>
     </row>
     <row r="69">
@@ -6561,7 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>92.55</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1851</v>
       </c>
     </row>
     <row r="70">
@@ -6629,10 +6838,10 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -6650,7 +6859,10 @@
         <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>94.36</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>1887.2</v>
       </c>
     </row>
     <row r="71">
@@ -6718,10 +6930,10 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -6739,7 +6951,10 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>95.48</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>1909.6</v>
       </c>
     </row>
     <row r="72">
@@ -6807,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
@@ -6828,7 +7043,10 @@
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1932</v>
       </c>
     </row>
     <row r="73">
@@ -6917,7 +7135,10 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>93.8</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>1876</v>
       </c>
     </row>
     <row r="74">
@@ -6977,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="U74" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -7004,7 +7225,10 @@
         <v>0</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>146.033</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>2920.66</v>
       </c>
     </row>
     <row r="75">
@@ -7077,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
@@ -7095,7 +7319,10 @@
         <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>98.42719999999998</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>1968.544</v>
       </c>
     </row>
     <row r="76">
@@ -7168,10 +7395,10 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
         <v>0</v>
@@ -7186,7 +7413,10 @@
         <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>97.7144</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>1954.288</v>
       </c>
     </row>
     <row r="77">
@@ -7255,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X77" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
         <v>0</v>
@@ -7273,7 +7503,10 @@
         <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>97.0016</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>1940.032</v>
       </c>
     </row>
     <row r="78">
@@ -7364,7 +7597,10 @@
         <v>0</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>99.14</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>1982.8</v>
       </c>
     </row>
     <row r="79">
@@ -7447,7 +7683,10 @@
         <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>96.68000000000001</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>1933.6</v>
       </c>
     </row>
     <row r="80">
@@ -7530,7 +7769,10 @@
         <v>0</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>1860</v>
       </c>
     </row>
     <row r="81">
@@ -7613,7 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="82">
@@ -7696,7 +7941,10 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>1898</v>
       </c>
     </row>
     <row r="83">
@@ -7779,7 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>93.30000000000001</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>1866</v>
       </c>
     </row>
     <row r="84">
@@ -7860,7 +8111,10 @@
         <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>128.5</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>2570</v>
       </c>
     </row>
     <row r="85">
@@ -7941,7 +8195,10 @@
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>121.2</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>2424</v>
       </c>
     </row>
     <row r="86">
@@ -8022,7 +8279,10 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>113.9</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>2278</v>
       </c>
     </row>
     <row r="87">
@@ -8103,7 +8363,10 @@
         <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>106.6</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>2132</v>
       </c>
     </row>
     <row r="88">
@@ -8166,10 +8429,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V88" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8190,7 +8453,10 @@
         <v>0</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>96.78</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>1935.6</v>
       </c>
     </row>
     <row r="89">
@@ -8277,7 +8543,10 @@
         <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>96.03999999999999</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>1920.8</v>
       </c>
     </row>
     <row r="90">
@@ -8364,7 +8633,10 @@
         <v>0</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>91.67999999999999</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>1833.6</v>
       </c>
     </row>
     <row r="91">
@@ -8427,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="V91" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
@@ -8451,7 +8723,10 @@
         <v>0</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>94.14199999999998</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>1882.84</v>
       </c>
     </row>
     <row r="92">
@@ -8512,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V92" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -8536,7 +8811,10 @@
         <v>0</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>105.255</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>2105.1</v>
       </c>
     </row>
     <row r="93">
@@ -8608,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y93" t="n">
         <v>20</v>
@@ -8617,13 +8895,16 @@
         <v>20</v>
       </c>
       <c r="AA93" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB93" t="n">
         <v>0</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>123.8</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>2476</v>
       </c>
     </row>
     <row r="94">
@@ -8683,13 +8964,13 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U94" t="n">
         <v>20</v>
       </c>
       <c r="V94" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -8710,7 +8991,10 @@
         <v>0</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>144.55</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>2891</v>
       </c>
     </row>
     <row r="95">
@@ -8773,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V95" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8797,7 +9081,10 @@
         <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>118.4</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>2368</v>
       </c>
     </row>
     <row r="96">
@@ -8857,10 +9144,10 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U96" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -8884,7 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>160.2</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3204</v>
       </c>
     </row>
     <row r="97">
@@ -8945,10 +9235,10 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V97" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -8969,7 +9259,10 @@
         <v>0</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>101.3</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>2026</v>
       </c>
     </row>
     <row r="98">
@@ -9030,10 +9323,10 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -9054,7 +9347,10 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>106.15</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>2123</v>
       </c>
     </row>
     <row r="99">
@@ -9113,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V99" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y99" t="n">
         <v>0</v>
@@ -9137,7 +9433,10 @@
         <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>100.065</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>2001.3</v>
       </c>
     </row>
     <row r="100">
@@ -9218,7 +9517,10 @@
         <v>0</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>93.56</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>1871.2</v>
       </c>
     </row>
     <row r="101">
@@ -9303,7 +9605,10 @@
         <v>0</v>
       </c>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>93.89999999999999</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>1878</v>
       </c>
     </row>
     <row r="102">
@@ -9396,7 +9701,10 @@
         <v>0</v>
       </c>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>94.52</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>1890.4</v>
       </c>
     </row>
     <row r="103">
@@ -9489,7 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>102.265</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>2045.3</v>
       </c>
     </row>
     <row r="104">
@@ -9564,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y104" t="n">
         <v>0</v>
@@ -9582,7 +9893,10 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>92.1356</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1842.712</v>
       </c>
     </row>
     <row r="105">
@@ -9657,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y105" t="n">
         <v>0</v>
@@ -9675,7 +9989,10 @@
         <v>0</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>97.14999999999999</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>1943</v>
       </c>
     </row>
     <row r="106">
@@ -9740,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V106" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W106" t="n">
         <v>0</v>
@@ -9764,7 +10081,10 @@
         <v>0</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>122.3664</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>2447.328</v>
       </c>
     </row>
     <row r="107">
@@ -9829,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V107" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -9853,7 +10173,10 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>122.4852</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>2449.704000000001</v>
       </c>
     </row>
     <row r="108">
@@ -9918,10 +10241,10 @@
         <v>0</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V108" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -9942,7 +10265,10 @@
         <v>0</v>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>122.684</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>2453.68</v>
       </c>
     </row>
     <row r="109">
@@ -10007,10 +10333,10 @@
         <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V109" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10031,7 +10357,10 @@
         <v>0</v>
       </c>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>122.8828</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>2457.656</v>
       </c>
     </row>
     <row r="110">
@@ -10094,10 +10423,10 @@
         <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V110" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W110" t="n">
         <v>0</v>
@@ -10118,7 +10447,10 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>123.0816</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>2461.632</v>
       </c>
     </row>
     <row r="111">
@@ -10209,7 +10541,10 @@
         <v>0</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>93.56</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1871.2</v>
       </c>
     </row>
     <row r="112">
@@ -10294,13 +10629,16 @@
         <v>0</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>93.62400000000001</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>1872.48</v>
       </c>
     </row>
     <row r="113">
@@ -10385,13 +10723,16 @@
         <v>0</v>
       </c>
       <c r="AA113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>93.688</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1873.76</v>
       </c>
     </row>
     <row r="114">
@@ -10476,13 +10817,16 @@
         <v>0</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>93.752</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>1875.04</v>
       </c>
     </row>
     <row r="115">
@@ -10567,13 +10911,16 @@
         <v>0</v>
       </c>
       <c r="AA115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>93.816</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1876.32</v>
       </c>
     </row>
     <row r="116">
@@ -10635,10 +10982,10 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="U116" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
@@ -10662,7 +11009,10 @@
         <v>0</v>
       </c>
       <c r="AC116" t="n">
-        <v>0</v>
+        <v>104.5258</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>2090.516</v>
       </c>
     </row>
     <row r="117">
@@ -10751,7 +11101,10 @@
         <v>0</v>
       </c>
       <c r="AC117" t="n">
-        <v>0</v>
+        <v>92.75080000000001</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>1855.016</v>
       </c>
     </row>
     <row r="118">
@@ -10811,10 +11164,10 @@
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V118" t="n">
         <v>0</v>
@@ -10838,7 +11191,10 @@
         <v>0</v>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>97.46080000000001</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>1949.216</v>
       </c>
     </row>
     <row r="119">
@@ -10898,10 +11254,10 @@
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U119" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V119" t="n">
         <v>0</v>
@@ -10925,7 +11281,10 @@
         <v>0</v>
       </c>
       <c r="AC119" t="n">
-        <v>0</v>
+        <v>100.6008</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>2012.016000000001</v>
       </c>
     </row>
     <row r="120">
@@ -10985,10 +11344,10 @@
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U120" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V120" t="n">
         <v>0</v>
@@ -11012,7 +11371,10 @@
         <v>0</v>
       </c>
       <c r="AC120" t="n">
-        <v>0</v>
+        <v>102.1708</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>2043.416</v>
       </c>
     </row>
     <row r="121">
@@ -11074,10 +11436,10 @@
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U121" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V121" t="n">
         <v>0</v>
@@ -11101,7 +11463,10 @@
         <v>0</v>
       </c>
       <c r="AC121" t="n">
-        <v>0</v>
+        <v>108.4508</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>2169.016</v>
       </c>
     </row>
     <row r="122">
@@ -11161,10 +11526,10 @@
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U122" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="V122" t="n">
         <v>0</v>
@@ -11188,7 +11553,10 @@
         <v>0</v>
       </c>
       <c r="AC122" t="n">
-        <v>0</v>
+        <v>112.3758</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>2247.516</v>
       </c>
     </row>
     <row r="123">
@@ -11248,10 +11616,10 @@
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U123" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V123" t="n">
         <v>0</v>
@@ -11275,7 +11643,10 @@
         <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>0</v>
+        <v>116.3008</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>2326.016</v>
       </c>
     </row>
     <row r="124">
@@ -11339,10 +11710,10 @@
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="U124" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
@@ -11366,7 +11737,10 @@
         <v>0</v>
       </c>
       <c r="AC124" t="n">
-        <v>0</v>
+        <v>144.849</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>2896.98</v>
       </c>
     </row>
     <row r="125">
@@ -11457,7 +11831,10 @@
         <v>0</v>
       </c>
       <c r="AC125" t="n">
-        <v>0</v>
+        <v>92.2</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>1844</v>
       </c>
     </row>
     <row r="126">
@@ -11546,7 +11923,10 @@
         <v>0</v>
       </c>
       <c r="AC126" t="n">
-        <v>0</v>
+        <v>91.32339999999999</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1826.468</v>
       </c>
     </row>
     <row r="127">
@@ -11633,7 +12013,10 @@
         <v>0</v>
       </c>
       <c r="AC127" t="n">
-        <v>0</v>
+        <v>91.5634</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>1831.268</v>
       </c>
     </row>
     <row r="128">
@@ -11720,7 +12103,10 @@
         <v>0</v>
       </c>
       <c r="AC128" t="n">
-        <v>0</v>
+        <v>91.80350000000001</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>1836.07</v>
       </c>
     </row>
     <row r="129">
@@ -11807,7 +12193,10 @@
         <v>0</v>
       </c>
       <c r="AC129" t="n">
-        <v>0</v>
+        <v>92.03700000000001</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>1840.74</v>
       </c>
     </row>
     <row r="130">
@@ -11894,7 +12283,10 @@
         <v>0</v>
       </c>
       <c r="AC130" t="n">
-        <v>0</v>
+        <v>92.2968</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>1845.936</v>
       </c>
     </row>
     <row r="131">
@@ -11981,7 +12373,10 @@
         <v>0</v>
       </c>
       <c r="AC131" t="n">
-        <v>0</v>
+        <v>92.55160000000001</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>1851.032</v>
       </c>
     </row>
     <row r="132">
@@ -12068,7 +12463,10 @@
         <v>0</v>
       </c>
       <c r="AC132" t="n">
-        <v>0</v>
+        <v>92.8034</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>1856.068</v>
       </c>
     </row>
     <row r="133">
@@ -12155,7 +12553,10 @@
         <v>0</v>
       </c>
       <c r="AC133" t="n">
-        <v>0</v>
+        <v>93.03719999999998</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>1860.744</v>
       </c>
     </row>
     <row r="134">
@@ -12246,7 +12647,10 @@
         <v>0</v>
       </c>
       <c r="AC134" t="n">
-        <v>0</v>
+        <v>95.76000000000001</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>1915.2</v>
       </c>
     </row>
     <row r="135">
@@ -12333,7 +12737,10 @@
         <v>0</v>
       </c>
       <c r="AC135" t="n">
-        <v>0</v>
+        <v>96.59200000000001</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>1931.84</v>
       </c>
     </row>
     <row r="136">
@@ -12422,7 +12829,10 @@
         <v>0</v>
       </c>
       <c r="AC136" t="n">
-        <v>0</v>
+        <v>97.486</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>1949.72</v>
       </c>
     </row>
     <row r="137">
@@ -12513,7 +12923,10 @@
         <v>0</v>
       </c>
       <c r="AC137" t="n">
-        <v>0</v>
+        <v>92.2</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>1844</v>
       </c>
     </row>
     <row r="138">
@@ -12591,10 +13004,13 @@
         <v>0</v>
       </c>
       <c r="AB138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC138" t="n">
-        <v>2</v>
+        <v>93.40000000000001</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>1868</v>
       </c>
     </row>
     <row r="139">
@@ -12685,7 +13101,10 @@
         <v>0</v>
       </c>
       <c r="AC139" t="n">
-        <v>0</v>
+        <v>93.40000000000001</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>1868</v>
       </c>
     </row>
     <row r="140">
@@ -12772,7 +13191,10 @@
         <v>0</v>
       </c>
       <c r="AC140" t="n">
-        <v>0</v>
+        <v>93.68000000000001</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>1873.6</v>
       </c>
     </row>
     <row r="141">
@@ -12859,7 +13281,10 @@
         <v>0</v>
       </c>
       <c r="AC141" t="n">
-        <v>0</v>
+        <v>99.28</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>1985.6</v>
       </c>
     </row>
     <row r="142">
@@ -12950,7 +13375,10 @@
         <v>0</v>
       </c>
       <c r="AC142" t="n">
-        <v>0</v>
+        <v>100.97</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>2019.4</v>
       </c>
     </row>
     <row r="143">
@@ -13039,7 +13467,10 @@
         <v>0</v>
       </c>
       <c r="AC143" t="n">
-        <v>0</v>
+        <v>93.40000000000001</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>1868</v>
       </c>
     </row>
     <row r="144">
@@ -13101,10 +13532,10 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U144" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
@@ -13128,7 +13559,10 @@
         <v>0</v>
       </c>
       <c r="AC144" t="n">
-        <v>0</v>
+        <v>147.43</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2948.6</v>
       </c>
     </row>
   </sheetData>
